--- a/AI简报数据.xlsx
+++ b/AI简报数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>AI简报</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>AI科技评论</t>
+  </si>
+  <si>
+    <t>极市平台</t>
   </si>
 </sst>
 </file>
@@ -96,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -110,6 +113,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -118,75 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +205,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,52 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,26 +475,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +501,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,6 +521,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,32 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,12 +1054,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1067,7 +1070,7 @@
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,6 +1145,9 @@
       </c>
       <c r="Z1" t="s">
         <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1337,9 +1343,15 @@
       <c r="A8" s="2">
         <v>20200416</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <v>760</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1356,11 +1368,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:27">
+      <c r="A9" s="2">
+        <v>20200423</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>

--- a/AI简报数据.xlsx
+++ b/AI简报数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,70 +113,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,10 +165,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,55 +241,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,31 +266,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,97 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,31 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -486,17 +501,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,34 +559,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,145 +580,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1059,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2">
-        <v>20200416</v>
+        <v>20210416</v>
       </c>
       <c r="B8" s="2">
         <v>760</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2">
-        <v>20200423</v>
+        <v>20210423</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1401,10 +1401,18 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2">
+        <v>20210723</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2201</v>
+      </c>
+      <c r="C11" s="2">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
